--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\projects\MenuWise\assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03639FC-BFAB-4797-9125-76692FC8DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBEE73-615E-4AC1-8452-D77C6DAC0223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>manual</t>
   </si>
   <si>
-    <t>The Best Homemade Cupcakes</t>
-  </si>
-  <si>
     <t>After trying and tweaking multiple recipes, I've created one that works beautifully. These are super moist, delicious homemade cupcakes. Top with your favorite frosting and enjoy! Our children devour these, even without icing!</t>
   </si>
   <si>
@@ -76,11 +73,14 @@
 ½ cup vegetable oil
 2 teaspoons vanilla extract</t>
   </si>
+  <si>
+    <t>The Best Homemade Cupcakes - Manual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,9 +560,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,11 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -963,19 +961,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -986,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
